--- a/data/9776.xlsx
+++ b/data/9776.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43379,6 +43379,41 @@
         <v>3170900</v>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>9776</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>SMCAP</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>297000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9776.xlsx
+++ b/data/9776.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43414,6 +43414,41 @@
         <v>297000</v>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>9776</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>SMCAP</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>499200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9776.xlsx
+++ b/data/9776.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43449,6 +43449,41 @@
         <v>499200</v>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>9776</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>SMCAP</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="I1220" t="n">
+        <v>446800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9776.xlsx
+++ b/data/9776.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43484,6 +43484,41 @@
         <v>446800</v>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>9776</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>SMCAP</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>10000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9776.xlsx
+++ b/data/9776.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43519,6 +43519,41 @@
         <v>10000</v>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>9776</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>SMCAP</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>484200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9776.xlsx
+++ b/data/9776.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43554,6 +43554,41 @@
         <v>484200</v>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>9776</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>SMCAP</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>382100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9776.xlsx
+++ b/data/9776.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43589,6 +43589,41 @@
         <v>382100</v>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>9776</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>SMCAP</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="I1224" t="n">
+        <v>479300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9776.xlsx
+++ b/data/9776.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1224"/>
+  <dimension ref="A1:I1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43624,6 +43624,41 @@
         <v>479300</v>
       </c>
     </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>9776</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>SMCAP</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>101100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9776.xlsx
+++ b/data/9776.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1225"/>
+  <dimension ref="A1:I1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43659,6 +43659,41 @@
         <v>101100</v>
       </c>
     </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>9776</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>SMCAP</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>2852800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9776.xlsx
+++ b/data/9776.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1226"/>
+  <dimension ref="A1:I1227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43694,6 +43694,41 @@
         <v>2852800</v>
       </c>
     </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>9776</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>SMCAP</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="I1227" t="n">
+        <v>330800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9776.xlsx
+++ b/data/9776.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1227"/>
+  <dimension ref="A1:I1228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43729,6 +43729,41 @@
         <v>330800</v>
       </c>
     </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>9776</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>SMCAP</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="I1228" t="n">
+        <v>169000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9776.xlsx
+++ b/data/9776.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1228"/>
+  <dimension ref="A1:I1229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43764,6 +43764,41 @@
         <v>169000</v>
       </c>
     </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>9776</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>SMCAP</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>82100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9776.xlsx
+++ b/data/9776.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1229"/>
+  <dimension ref="A1:I1231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43799,6 +43799,76 @@
         <v>82100</v>
       </c>
     </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>9776</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>SMCAP</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>9000000</v>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>9776</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>SMCAP</t>
+        </is>
+      </c>
+      <c r="E1231" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="I1231" t="n">
+        <v>90000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9776.xlsx
+++ b/data/9776.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1231"/>
+  <dimension ref="A1:I1233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43869,6 +43869,76 @@
         <v>90000</v>
       </c>
     </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>9776</t>
+        </is>
+      </c>
+      <c r="D1232" t="inlineStr">
+        <is>
+          <t>SMCAP</t>
+        </is>
+      </c>
+      <c r="E1232" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="I1232" t="n">
+        <v>103100</v>
+      </c>
+    </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>9776</t>
+        </is>
+      </c>
+      <c r="D1233" t="inlineStr">
+        <is>
+          <t>SMCAP</t>
+        </is>
+      </c>
+      <c r="E1233" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="I1233" t="n">
+        <v>3000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9776.xlsx
+++ b/data/9776.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1233"/>
+  <dimension ref="A1:I1234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43939,6 +43939,41 @@
         <v>3000</v>
       </c>
     </row>
+    <row r="1234">
+      <c r="A1234" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t>9776</t>
+        </is>
+      </c>
+      <c r="D1234" t="inlineStr">
+        <is>
+          <t>SMCAP</t>
+        </is>
+      </c>
+      <c r="E1234" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="G1234" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="I1234" t="n">
+        <v>36000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9776.xlsx
+++ b/data/9776.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1234"/>
+  <dimension ref="A1:I1235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43974,6 +43974,41 @@
         <v>36000</v>
       </c>
     </row>
+    <row r="1235">
+      <c r="A1235" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1235" t="inlineStr">
+        <is>
+          <t>9776</t>
+        </is>
+      </c>
+      <c r="D1235" t="inlineStr">
+        <is>
+          <t>SMCAP</t>
+        </is>
+      </c>
+      <c r="E1235" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="F1235" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="G1235" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="H1235" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="I1235" t="n">
+        <v>10000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9776.xlsx
+++ b/data/9776.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1235"/>
+  <dimension ref="A1:I1236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44009,6 +44009,43 @@
         <v>10000</v>
       </c>
     </row>
+    <row r="1236">
+      <c r="A1236" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1236" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1236" t="inlineStr">
+        <is>
+          <t>9776</t>
+        </is>
+      </c>
+      <c r="D1236" t="inlineStr">
+        <is>
+          <t>SMCAP</t>
+        </is>
+      </c>
+      <c r="E1236" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="F1236" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="G1236" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="H1236" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="I1236" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9776.xlsx
+++ b/data/9776.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1236"/>
+  <dimension ref="A1:I1237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44046,6 +44046,41 @@
         </is>
       </c>
     </row>
+    <row r="1237">
+      <c r="A1237" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1237" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1237" t="inlineStr">
+        <is>
+          <t>9776</t>
+        </is>
+      </c>
+      <c r="D1237" t="inlineStr">
+        <is>
+          <t>SMCAP</t>
+        </is>
+      </c>
+      <c r="E1237" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="F1237" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="G1237" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="H1237" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="I1237" t="n">
+        <v>42000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9776.xlsx
+++ b/data/9776.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1237"/>
+  <dimension ref="A1:I1239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44081,6 +44081,76 @@
         <v>42000</v>
       </c>
     </row>
+    <row r="1238">
+      <c r="A1238" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1238" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1238" t="inlineStr">
+        <is>
+          <t>9776</t>
+        </is>
+      </c>
+      <c r="D1238" t="inlineStr">
+        <is>
+          <t>SMCAP</t>
+        </is>
+      </c>
+      <c r="E1238" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F1238" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="G1238" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H1238" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="I1238" t="n">
+        <v>152100</v>
+      </c>
+    </row>
+    <row r="1239">
+      <c r="A1239" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1239" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1239" t="inlineStr">
+        <is>
+          <t>9776</t>
+        </is>
+      </c>
+      <c r="D1239" t="inlineStr">
+        <is>
+          <t>SMCAP</t>
+        </is>
+      </c>
+      <c r="E1239" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="F1239" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="G1239" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="H1239" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="I1239" t="n">
+        <v>110000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9776.xlsx
+++ b/data/9776.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1239"/>
+  <dimension ref="A1:I1240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44151,6 +44151,41 @@
         <v>110000</v>
       </c>
     </row>
+    <row r="1240">
+      <c r="A1240" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1240" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1240" t="inlineStr">
+        <is>
+          <t>9776</t>
+        </is>
+      </c>
+      <c r="D1240" t="inlineStr">
+        <is>
+          <t>SMCAP</t>
+        </is>
+      </c>
+      <c r="E1240" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F1240" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G1240" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="H1240" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="I1240" t="n">
+        <v>51500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9776.xlsx
+++ b/data/9776.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1240"/>
+  <dimension ref="A1:I1241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44186,6 +44186,41 @@
         <v>51500</v>
       </c>
     </row>
+    <row r="1241">
+      <c r="A1241" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1241" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1241" t="inlineStr">
+        <is>
+          <t>9776</t>
+        </is>
+      </c>
+      <c r="D1241" t="inlineStr">
+        <is>
+          <t>SMCAP</t>
+        </is>
+      </c>
+      <c r="E1241" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="F1241" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="G1241" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="H1241" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="I1241" t="n">
+        <v>129000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9776.xlsx
+++ b/data/9776.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2524"/>
+  <dimension ref="A1:I2525"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -89126,6 +89126,41 @@
         <v>129000</v>
       </c>
     </row>
+    <row r="2525">
+      <c r="A2525" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B2525" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C2525" t="inlineStr">
+        <is>
+          <t>9776</t>
+        </is>
+      </c>
+      <c r="D2525" t="inlineStr">
+        <is>
+          <t>SMCAP</t>
+        </is>
+      </c>
+      <c r="E2525" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="F2525" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G2525" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="H2525" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I2525" t="n">
+        <v>30000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9776.xlsx
+++ b/data/9776.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2525"/>
+  <dimension ref="A1:I2526"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -89161,6 +89161,41 @@
         <v>30000</v>
       </c>
     </row>
+    <row r="2526">
+      <c r="A2526" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B2526" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C2526" t="inlineStr">
+        <is>
+          <t>9776</t>
+        </is>
+      </c>
+      <c r="D2526" t="inlineStr">
+        <is>
+          <t>SMCAP</t>
+        </is>
+      </c>
+      <c r="E2526" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="F2526" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="G2526" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="H2526" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="I2526" t="n">
+        <v>300900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9776.xlsx
+++ b/data/9776.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2526"/>
+  <dimension ref="A1:I2527"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -89196,6 +89196,41 @@
         <v>300900</v>
       </c>
     </row>
+    <row r="2527">
+      <c r="A2527" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B2527" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C2527" t="inlineStr">
+        <is>
+          <t>9776</t>
+        </is>
+      </c>
+      <c r="D2527" t="inlineStr">
+        <is>
+          <t>SMCAP</t>
+        </is>
+      </c>
+      <c r="E2527" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="F2527" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="G2527" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="H2527" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I2527" t="n">
+        <v>221000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9776.xlsx
+++ b/data/9776.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2527"/>
+  <dimension ref="A1:I2528"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -89231,6 +89231,41 @@
         <v>221000</v>
       </c>
     </row>
+    <row r="2528">
+      <c r="A2528" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B2528" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C2528" t="inlineStr">
+        <is>
+          <t>9776</t>
+        </is>
+      </c>
+      <c r="D2528" t="inlineStr">
+        <is>
+          <t>SMCAP</t>
+        </is>
+      </c>
+      <c r="E2528" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="F2528" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="G2528" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="H2528" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I2528" t="n">
+        <v>255000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9776.xlsx
+++ b/data/9776.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2528"/>
+  <dimension ref="A1:I2529"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -89266,6 +89266,41 @@
         <v>255000</v>
       </c>
     </row>
+    <row r="2529">
+      <c r="A2529" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B2529" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C2529" t="inlineStr">
+        <is>
+          <t>9776</t>
+        </is>
+      </c>
+      <c r="D2529" t="inlineStr">
+        <is>
+          <t>SMCAP</t>
+        </is>
+      </c>
+      <c r="E2529" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F2529" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G2529" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="H2529" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I2529" t="n">
+        <v>265000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9776.xlsx
+++ b/data/9776.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2529"/>
+  <dimension ref="A1:I2530"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -89301,6 +89301,41 @@
         <v>265000</v>
       </c>
     </row>
+    <row r="2530">
+      <c r="A2530" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B2530" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C2530" t="inlineStr">
+        <is>
+          <t>9776</t>
+        </is>
+      </c>
+      <c r="D2530" t="inlineStr">
+        <is>
+          <t>SMCAP</t>
+        </is>
+      </c>
+      <c r="E2530" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="F2530" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G2530" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="H2530" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I2530" t="n">
+        <v>1200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9776.xlsx
+++ b/data/9776.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2530"/>
+  <dimension ref="A1:I2531"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -89336,6 +89336,41 @@
         <v>1200</v>
       </c>
     </row>
+    <row r="2531">
+      <c r="A2531" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B2531" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C2531" t="inlineStr">
+        <is>
+          <t>9776</t>
+        </is>
+      </c>
+      <c r="D2531" t="inlineStr">
+        <is>
+          <t>SMCAP</t>
+        </is>
+      </c>
+      <c r="E2531" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="F2531" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="G2531" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="H2531" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="I2531" t="n">
+        <v>70000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9776.xlsx
+++ b/data/9776.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2531"/>
+  <dimension ref="A1:I2532"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -89371,6 +89371,41 @@
         <v>70000</v>
       </c>
     </row>
+    <row r="2532">
+      <c r="A2532" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B2532" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C2532" t="inlineStr">
+        <is>
+          <t>9776</t>
+        </is>
+      </c>
+      <c r="D2532" t="inlineStr">
+        <is>
+          <t>SMCAP</t>
+        </is>
+      </c>
+      <c r="E2532" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="F2532" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="G2532" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="H2532" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I2532" t="n">
+        <v>4012600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9776.xlsx
+++ b/data/9776.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2532"/>
+  <dimension ref="A1:I2533"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -89406,6 +89406,43 @@
         <v>4012600</v>
       </c>
     </row>
+    <row r="2533">
+      <c r="A2533" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B2533" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C2533" t="inlineStr">
+        <is>
+          <t>9776</t>
+        </is>
+      </c>
+      <c r="D2533" t="inlineStr">
+        <is>
+          <t>SMCAP</t>
+        </is>
+      </c>
+      <c r="E2533" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="F2533" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G2533" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="H2533" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I2533" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9776.xlsx
+++ b/data/9776.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2533"/>
+  <dimension ref="A1:I2534"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -89443,6 +89443,41 @@
         </is>
       </c>
     </row>
+    <row r="2534">
+      <c r="A2534" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B2534" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C2534" t="inlineStr">
+        <is>
+          <t>9776</t>
+        </is>
+      </c>
+      <c r="D2534" t="inlineStr">
+        <is>
+          <t>SMCAP</t>
+        </is>
+      </c>
+      <c r="E2534" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F2534" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G2534" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="H2534" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="I2534" t="n">
+        <v>70000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9776.xlsx
+++ b/data/9776.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2534"/>
+  <dimension ref="A1:I2535"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -89478,6 +89478,41 @@
         <v>70000</v>
       </c>
     </row>
+    <row r="2535">
+      <c r="A2535" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B2535" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C2535" t="inlineStr">
+        <is>
+          <t>9776</t>
+        </is>
+      </c>
+      <c r="D2535" t="inlineStr">
+        <is>
+          <t>SMCAP</t>
+        </is>
+      </c>
+      <c r="E2535" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="F2535" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="G2535" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="H2535" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="I2535" t="n">
+        <v>30000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9776.xlsx
+++ b/data/9776.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2535"/>
+  <dimension ref="A1:I2536"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -89513,6 +89513,41 @@
         <v>30000</v>
       </c>
     </row>
+    <row r="2536">
+      <c r="A2536" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B2536" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C2536" t="inlineStr">
+        <is>
+          <t>9776</t>
+        </is>
+      </c>
+      <c r="D2536" t="inlineStr">
+        <is>
+          <t>SMCAP</t>
+        </is>
+      </c>
+      <c r="E2536" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="F2536" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="G2536" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="H2536" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="I2536" t="n">
+        <v>195400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9776.xlsx
+++ b/data/9776.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2536"/>
+  <dimension ref="A1:I2537"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -89548,6 +89548,41 @@
         <v>195400</v>
       </c>
     </row>
+    <row r="2537">
+      <c r="A2537" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B2537" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C2537" t="inlineStr">
+        <is>
+          <t>9776</t>
+        </is>
+      </c>
+      <c r="D2537" t="inlineStr">
+        <is>
+          <t>SMCAP</t>
+        </is>
+      </c>
+      <c r="E2537" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="F2537" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="G2537" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="H2537" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="I2537" t="n">
+        <v>40000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9776.xlsx
+++ b/data/9776.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2537"/>
+  <dimension ref="A1:I2538"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -89583,6 +89583,43 @@
         <v>40000</v>
       </c>
     </row>
+    <row r="2538">
+      <c r="A2538" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B2538" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C2538" t="inlineStr">
+        <is>
+          <t>9776</t>
+        </is>
+      </c>
+      <c r="D2538" t="inlineStr">
+        <is>
+          <t>SMCAP</t>
+        </is>
+      </c>
+      <c r="E2538" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="F2538" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="G2538" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="H2538" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="I2538" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9776.xlsx
+++ b/data/9776.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2538"/>
+  <dimension ref="A1:I2539"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -89620,6 +89620,41 @@
         </is>
       </c>
     </row>
+    <row r="2539">
+      <c r="A2539" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B2539" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C2539" t="inlineStr">
+        <is>
+          <t>9776</t>
+        </is>
+      </c>
+      <c r="D2539" t="inlineStr">
+        <is>
+          <t>SMCAP</t>
+        </is>
+      </c>
+      <c r="E2539" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="F2539" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="G2539" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="H2539" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="I2539" t="n">
+        <v>141000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
